--- a/biology/Histoire de la zoologie et de la botanique/William_Stimpson/William_Stimpson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Stimpson/William_Stimpson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Stimpson est un naturaliste américain, né le 14 février 1832 à Roxbury dans le Massachusetts et mort le 26 mai 1872 à Ilchester, dans le Tennessee, de tuberculose.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Passionné très jeune par l’histoire naturelle, il rencontre à 15 ans Augustus Addison Gould (1805-1866), conchyliologiste américain renommé. Celui-ci s’intéresse au jeune homme et lui offre son livre Invertebrata of Massachusetts qui devient vite son livre de chevet.
 Ses parents l’incitent à suivre des cours d’ingénierie, mais le jeune Stimpson préfère l’étude de la nature et la récolte d’escargots sauvages. Il passe ainsi l’été 1848 à bord d’un vaisseau de pêche dans les îles de Grand Manan où il étudie la faune marine. Grâce à la recommandation de Gould, Stimpson est embauché comme laborantin par Louis Agassiz (1807-1873) à Cambridge. En 1851, il fait paraître Shells of New England où il décrit 344 espèces de mollusques (l’ouvrage de Gould n’en citait que 137 de la même région).
